--- a/DB/Item/ItemGrop-2024-07-31.xlsx
+++ b/DB/Item/ItemGrop-2024-07-31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5402F-6469-420F-ACC0-00D06DB14BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990D3E4-5278-449B-B29E-FBEAEE8EEF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,15 +150,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,17 +463,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -504,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -522,15 +520,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -539,15 +537,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -556,15 +554,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -573,49 +571,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -624,66 +622,66 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
